--- a/Project Files/_ClientName_/_ProjectName_/V1I1/Templates/BOM/BOM Reference PATECH.xlsx
+++ b/Project Files/_ClientName_/_ProjectName_/V1I1/Templates/BOM/BOM Reference PATECH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PA\Desktop\PATECH_PCB_Template_Project\!Design Documentation\Templates\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PA\Desktop\PATECH-PCB-Template-Project-main\Project Files\_ClientName_\_ProjectName_\V1I1\Templates\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298EE9E4-FD28-4C62-AEE7-4FD9427A6D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F564A2-7924-4D8B-BDA0-00BE3FF2BBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -752,7 +752,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -875,7 +875,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1557,8 +1556,8 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1571,54 +1570,54 @@
     <col min="6" max="8" width="30.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="37" customWidth="1"/>
     <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="42" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="42" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="42" customWidth="1"/>
-    <col min="14" max="14" width="8" style="42" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="41" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="41" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="41" customWidth="1"/>
+    <col min="14" max="14" width="8" style="41" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="44" customWidth="1"/>
     <col min="16" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="50"/>
+    <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="11"/>
       <c r="C3" s="31"/>
       <c r="D3" s="11" t="s">
@@ -1634,12 +1633,12 @@
       <c r="I3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="43"/>
+      <c r="J3" s="73"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="11"/>
       <c r="C4" s="31"/>
       <c r="D4" s="11" t="s">
@@ -1651,11 +1650,11 @@
       <c r="F4" s="26"/>
       <c r="G4" s="33"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="75"/>
-      <c r="L4" s="45"/>
+      <c r="J4" s="74"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="68"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="11"/>
       <c r="C5" s="31"/>
       <c r="D5" s="11" t="s">
@@ -1665,27 +1664,27 @@
         <v>5</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="102"/>
+      <c r="G5" s="101"/>
       <c r="I5" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="L5" s="45"/>
+      <c r="J5" s="74"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="16"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="102"/>
+      <c r="G6" s="101"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="75"/>
-      <c r="L6" s="45"/>
+      <c r="J6" s="74"/>
+      <c r="L6" s="44"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
         <v>32</v>
@@ -1697,203 +1696,203 @@
         <v>14</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="102"/>
-      <c r="I7" s="103" t="s">
+      <c r="G7" s="101"/>
+      <c r="I7" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="44"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="21">
         <f ca="1">TODAY()</f>
-        <v>44955</v>
+        <v>45158</v>
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>44955.35307488426</v>
+        <v>45158.798666319446</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="19"/>
       <c r="H8" s="14"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="75"/>
-      <c r="L8" s="45"/>
+      <c r="J8" s="74"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:15" s="25" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="98">
+      <c r="A10" s="67"/>
+      <c r="B10" s="97">
         <f>ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="54"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="27"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="99">
+      <c r="A11" s="67"/>
+      <c r="B11" s="98">
         <f>ROW(B11) - ROW($B$9)</f>
         <v>2</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="56"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="98">
+      <c r="A12" s="67"/>
+      <c r="B12" s="97">
         <f>ROW(B12) - ROW($B$9)</f>
         <v>3</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="56"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="29"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="44"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="104" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="105"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="4"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="76" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="83"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:15" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="78"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="5"/>
       <c r="H15" s="39"/>
       <c r="I15" s="38"/>
-      <c r="J15" s="84"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="46"/>
+      <c r="J15" s="83"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="78"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="48"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="86"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="47"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
@@ -1921,9 +1920,8 @@
     <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.59055118110236227" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;LCreated by FEDEVEL&amp;CMotherboard, Processor and Microcontroller Board Design&amp;Rhttp://www.fedevel.com</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId3"/>
@@ -1944,114 +1942,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="89" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="89" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="89" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="91" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="89" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="91" t="s">
         <v>26</v>
       </c>
     </row>
